--- a/Controle.xlsx
+++ b/Controle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meus Documentos\Documents\Sistema\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pasta Local do Repositorio\Nome_Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA66B6-A68D-4859-AFE4-F12812A2B866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4055BB2E-E968-4B3B-9055-88CBECCDAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{206983C7-B82B-43B1-8D80-198E76AC55D4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{206983C7-B82B-43B1-8D80-198E76AC55D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Controle.xlsx
+++ b/Controle.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pasta Local do Repositorio\Nome_Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4055BB2E-E968-4B3B-9055-88CBECCDAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1533026-4A7F-47F1-9813-C824EEDFEA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{206983C7-B82B-43B1-8D80-198E76AC55D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>SISTEMAS DE ALTO FLUXO</t>
   </si>
@@ -130,6 +128,9 @@
   </si>
   <si>
     <t>BIGUAÇU</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -484,7 +485,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +585,9 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
       <c r="I9">
         <v>7</v>
       </c>
